--- a/biology/Virologie/Liste_d'agents_infectieux/Liste_d'agents_infectieux.xlsx
+++ b/biology/Virologie/Liste_d'agents_infectieux/Liste_d'agents_infectieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page est une liste d'agents infectieux  et de types d'agents infectieux (bactéries, champignons, parasites, prions et virus). Il existe aussi un article sur la classification des virus.
 Certains termes sont des synonymes : s'il existe déjà un article sur un agent infectieux mais sous un autre nom, créer (si ce n'est déjà fait) une redirection du synonyme vers l'autre nom, et catégoriser la redirection.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,18 +551,20 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aa
-Aalivirus ⇒ [1]: (seul un species - AalV-A1; cette virus est un semblemance ( d'avihepatovirus/avisivirus (Picornaviridae les deux); isolé - canard/GL/12/Chine/2012) 
-AAV-A  (Adeno-associated dependoparvovirus A) (Piccovirales : Parvoviridae), B (Adeno-associated dependoparvovirus B) ⇒ [2]
+Aalivirus ⇒ : (seul un species - AalV-A1; cette virus est un semblemance ( d'avihepatovirus/avisivirus (Picornaviridae les deux); isolé - canard/GL/12/Chine/2012) 
+AAV-A  (Adeno-associated dependoparvovirus A) (Piccovirales : Parvoviridae), B (Adeno-associated dependoparvovirus B) ⇒ 
 Ab
 Abaca (Musa textilis) :
-groupé au sommet[1]  (Nanoviridae)
+groupé au sommet  (Nanoviridae)
 Abeille :
 virus de l'abeille cachemirien
-ABPV (Acute abeille paralysis)  (Dicistroviridae) ⇒ [3] - (Apis mellifera)
+ABPV (Acute abeille paralysis)  (Dicistroviridae) ⇒  - (Apis mellifera)
 Abricot :
 latent cercle-tache
 latent
@@ -558,57 +572,57 @@
 veine clearing associée
 Ac
 Acanthamoeba polyphaga (Mimivirus)
-Acanthocystis ⇒ [4] turfacea chlorella I (Chlorovirus) ⇒ [5]
+Acanthocystis ⇒  turfacea chlorella I (Chlorovirus) ⇒ 
 Acara (Orthobunyavirus)
-Achimota pararubulavirus I, II ⇒[6]
-Acholeplasma ⇒[7] L2, L51 (Tubulavirales : Plectroviridae)
-Achromobacter ⇒[8] 83-24, Axp3, JWAlpha, JWX
+Achimota pararubulavirus I, II ⇒
+Acholeplasma ⇒ L2, L51 (Tubulavirales : Plectroviridae)
+Achromobacter ⇒ 83-24, Axp3, JWAlpha, JWX
 Acidianus forme de bouteille; filamentous I, II, III, VI, VII, VIII, IX  (Lipothrixviridae); fusiforme I
 Acidovorax ACP17
 AciHV-II (Acipenserid Herpesvirales II: Alloherpesviridae : Ictalurivirus)
 Acinetobacter:
-133 ⇒[9]
-AB1 ⇒[10]
-AB2 ⇒[11]
-AB3 ⇒[12]
-vAbC62 ⇒[13]
-AbKT21III ⇒[14]
-Abp1 ⇒[15]
-AbP2 ⇒[16]
-Aci01-I ⇒[17]
-Aci02-II ⇒[18]
-Aci05 ⇒[19]
-Aci07 ⇒[20]
-Aci08 ⇒[21]
+133 ⇒
+AB1 ⇒
+AB2 ⇒
+AB3 ⇒
+vAbC62 ⇒
+AbKT21III ⇒
+Abp1 ⇒
+AbP2 ⇒
+Aci01-I ⇒
+Aci02-II ⇒
+Aci05 ⇒
+Aci07 ⇒
+Aci08 ⇒
 Acibe1007 (null 16/7/22)
-AP22 ⇒[22]
-AS11 ⇒[23]
+AP22 ⇒
+AS11 ⇒
 AS12 (null 16/7/22)
-B1 ⇒[24]
-B1251 ⇒[25]
-B2 ⇒[26]
-B5 ⇒[27]
-D2 ⇒[28]
-Fri1 ⇒[29]
-IME200 ⇒[30]
-IMEAB3 ⇒[31]
-Loki ⇒[32]
-LZ35 ⇒[33]
-ME3 ⇒[34]
-P1 ⇒[35]
-P2 ⇒[36]
-vB_AbaP_PD-6A3⇐(Wu et al) ⇒[37]
-PDAB9 ⇒[38]
-Petty ⇒[39][40]
-phiAB1 ⇒[41]
-phiAB6 ⇒[42]
-R3177 ⇒[43]
-SH-Ab 15519 ⇒[44]
+B1 ⇒
+B1251 ⇒
+B2 ⇒
+B5 ⇒
+D2 ⇒
+Fri1 ⇒
+IME200 ⇒
+IMEAB3 ⇒
+Loki ⇒
+LZ35 ⇒
+ME3 ⇒
+P1 ⇒
+P2 ⇒
+vB_AbaP_PD-6A3⇐(Wu et al) ⇒
+PDAB9 ⇒
+Petty ⇒
+phiAB1 ⇒
+phiAB6 ⇒
+R3177 ⇒
+SH-Ab 15519 ⇒
 SWHAB1 (null 18/7/22)
 SWHAb3 (null 18/7/22)
-WCHABP1 ⇒[45]
-WCHABP12 ⇒[46]
-WCHABP5 ⇒[47]
+WCHABP1 ⇒
+WCHABP12 ⇒
+WCHABP5 ⇒
 Aconitum :
 latent
 Acrobasis zelleri:
@@ -664,10 +678,10 @@
 Agrotis segetum :
 granulovirus
 nucleopolyhedrovirus A , B
-El Aguacate (forêt tropicale du Panama) (hôte : Lutzomyia sp)[2] :
-phlebovirus ⇒[48]
+El Aguacate (forêt tropicale du Panama) (hôte : Lutzomyia sp) :
+phlebovirus ⇒
 Ah
-virus à base d'eau d'Ahlum (de l'Ahlumerbach cours d'eau, en Wolfenbüttel, Allemagne)[3]
+virus à base d'eau d'Ahlum (de l'Ahlumerbach cours d'eau, en Wolfenbüttel, Allemagne)
 Ai
 Ailurivirus A
 Ailuropoda melanoleuca :
@@ -690,7 +704,7 @@
 alphasatellite
 mosaique virus
 Alcube phlebovirus
-Alefpapillomavirus I ⇒[49]
+Alefpapillomavirus I ⇒
 ALEV (Alenquer phlebovirus)
 AlHV-I (Alcelaphine gammaherpesvirus 1) (Rhadinovirus) de causa  Fièvre catarrhale maligne-Coryza gangréneux, -II (Alcelaphine gammaherpesvirus II)
 ALJV  (Gamboa serogroupe (un GAMSVirus): Alajuela orthobunyavirus)
@@ -703,14 +717,14 @@
 II
 X
 Allpahuayo mammarenavirus
-Almpiwar sripuvirus ⇒[50][51]
+Almpiwar sripuvirus ⇒
 Alouate (singes hurleurs) :
 porprismacovirus 1
 Alpha-I (Coronavirus)
 α-lipothrixvirus : SBFV2, SFV1
 α-mesonivirus : I, X, II, III, IIII, V, VI, VII, VIII, IX
-αlpha-pleolipovirus HHPV1 , HHPV2 , HRPV1, HRPV2, HRPV6 ⇒[52]
-Alphaportoglobovirus SPV2 ⇒[53]
+αlpha-pleolipovirus HHPV1 , HHPV2 , HRPV1, HRPV2, HRPV6 ⇒
+Alphaportoglobovirus SPV2 ⇒
 Alphaproteobacteria phiJl001
 Alpinia :
 mosaïque
@@ -727,7 +741,7 @@
 Alternanthera philoxeroides :
 stunting
 Alternaria : alternata chrysovirus, brassicicola betaendornavirus I
-Alteromonas H4-IIII ⇒[54]
+Alteromonas H4-IIII ⇒
 Alxa :
 mammarenavirus
 Am
@@ -796,14 +810,14 @@
 Ao
 Aotine betaherpesvirus I (en)
 Ap
-Apanteles crassicornis[4] (en es) :  bracovirus, fumiferanae bracovirus
+Apanteles crassicornis (en es) :  bracovirus, fumiferanae bracovirus
 Aphodius tasmaniae :
 entomopoxvirus
 Apium :
 Y
 Aplysia :
 abyssovirus I
-Apoi (Flavivirus) (d'Apodemus argenteus)[5]
+Apoi (Flavivirus) (d'Apodemus argenteus)
 Aq
 Aquamavirus A
 Aquamicrobium P14
@@ -853,7 +867,7 @@
 jaune cercle-tache
 Artogeia rapae (Piéride de la rave) :
 granulovirus
-Aruac virus arurhavirus[6]
+Aruac virus arurhavirus
 As
 Asama :
 orthohantavirus
@@ -935,7 +949,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -953,7 +967,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ba
@@ -968,10 +984,10 @@
 Bacillus : Agate, Andromeda, AP50, AvesoBmore
 b
 Bacillus
-B103 ⇒[55]
-B4 ⇒[56]
-Bam35 ⇒[57]
- Bastille ⇒[58]
+B103 ⇒
+B4 ⇒
+Bam35 ⇒
+ Bastille ⇒
 Bc431
 Bcp1
 BCP78
@@ -1075,9 +1091,9 @@
 mosaïque virus
 Bat
 Batai orthobunyavirus (en)
-Batama orthobunyavirus ⇒[59]
+Batama orthobunyavirus ⇒
 Batfish :
-actinovirus ⇒[60]
+actinovirus ⇒
 Bav
 Bavière
 Bay
@@ -1296,7 +1312,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1314,7 +1330,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cabassou
@@ -1572,7 +1590,7 @@
 ringspot 
 veinal mottle 
 Chiltepin yellow mosaic 
-Chim orthonairovirus[7]
+Chim orthonairovirus
 Chimpanzé:
 circovirus 1
 cyclovirus 1
@@ -1911,7 +1929,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1929,7 +1947,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dabie bandavirus
@@ -2113,7 +2133,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2131,7 +2151,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eaux usées :
@@ -2277,29 +2299,29 @@
 Erysimum latent
 Erysiphe cichoracearum alphaendornavirus
 Erythrura gouldiae polyomavirus 1
-Escherichia[8]:
+Escherichia:
 LL11
-phage ESCO13 ⇐ [61]
+phage ESCO13 ⇐ 
 v121Q
-172-1 ⇐ [62]
+172-1 ⇐ 
 186 (en)
-4MG ⇐ [63]
-64795ec1 ⇐ [64]
-933W ⇐ [65]
+4MG ⇐ 
+64795ec1 ⇐ 
+933W ⇐ 
 95
-9g ⇐ [66]
-13a ⇐ [67] (mus[9])
-191 ⇒ [68]
-24B ⇐ [69]
-285P ⇐ [70]
-AAPEc6 ⇐ [71]
-AKS96 ⇐ [72]
-ACGC91 ⇐ [73]
-ACGM12 ⇐ [74]
-ADB2 ⇐ [75]
-AHS24 ⇐ [76]
-AHP42 ⇐ [77]
-AKFV33 ⇐[78]
+9g ⇐ 
+13a ⇐  (mus)
+191 ⇒ 
+24B ⇐ 
+285P ⇐ 
+AAPEc6 ⇐ 
+AKS96 ⇐ 
+ACGC91 ⇐ 
+ACGM12 ⇐ 
+ADB2 ⇐ 
+AHS24 ⇐ 
+AHP42 ⇐ 
+AKFV33 ⇐
 Alf5
 alpha3
 APCEc01
@@ -2596,7 +2618,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2614,7 +2636,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Faceys paddock orthobunyavirus
@@ -2761,7 +2785,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2779,7 +2803,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gabek phlebovirus
@@ -3012,7 +3038,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3030,10 +3056,12 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Haartman Institut[10] (Boa constricteur[11]) hartmanivirus[12] (Arenaviridae[10])
+Haartman Institut (Boa constricteur) hartmanivirus (Arenaviridae)
 Habenaria :
 mosaique virus
 Haemophilus :
@@ -3179,588 +3207,588 @@
 Holmes hapavirus
 Homalodisca coagulata :
 virus 1
-l'agents infectieux de Homo sapiens (humain) :  ⇒ [79], [80], [81]
-(virus) Absettarov[13]
-Acinetobacter[14] :
-baumannii (bactéries)[14]
-Actinomadura (en) (bactéries)[13]:
-madurae[13]
-pelletieri[13]
-Actinomyces[13] :
-gerencseriae[13]
-israelii[13]
-spp.[13]
-Adenoviridae (familia)[13]
-Aggregatibacter actinomycetemcomitans (Actinobacillus actinomycetemcomitans)[13]
-Aichivirus A (virus Aichi 1)[13]
-virus Alkhumra[15]
-Alphavirus  (cohortis)[13]
-Anaplasma[13]:
-spp.[13]
-Apoi (Flavivirus) (Apodemus argenteus)[16]
+l'agents infectieux de Homo sapiens (humain) :  ⇒ , , 
+(virus) Absettarov
+Acinetobacter :
+baumannii (bactéries)
+Actinomadura (en) (bactéries):
+madurae
+pelletieri
+Actinomyces :
+gerencseriae
+israelii
+spp.
+Adenoviridae (familia)
+Aggregatibacter actinomycetemcomitans (Actinobacillus actinomycetemcomitans)
+Aichivirus A (virus Aichi 1)
+virus Alkhumra
+Alphavirus  (cohortis)
+Anaplasma:
+spp.
+Apoi (Flavivirus) (Apodemus argenteus)
 Arcanobacterium (en de) :
-haemolyticum (Corynebacterium haenolyticum)[13]
+haemolyticum (Corynebacterium haenolyticum)
 Arcobacter (en it) :
-butzleri (it en)[13]
-cryaerophilus[17] :
-skirrowii[17] :
-thereius[17] :
-Arenaviridae (familia)[13]
-Ascaris lumbricoides (parasite)[18]
-Astroviridae  (familia)[13]
-Avulavirus (cohortis)[13]
-Bacillus anthracis[13] (Maladie du charbon[19])
-Bacteroides[13] :
-Bacteroides fragilis[13],[20],[21]
-virus Banna[13] (en)
-virus de la forêt de Barmah d'Australie[22]
-Bartonella[13] :
-bacilliformis[13]
- quintana  (Rochalimaea quintana)[13]
-Rochalimaea spp.[13]
-bronchiseptica[13]
-parapertussis[13]
-pertussisis[13]
-spp.[13]
+butzleri (it en)
+cryaerophilus :
+skirrowii :
+thereius :
+Arenaviridae (familia)
+Ascaris lumbricoides (parasite)
+Astroviridae  (familia)
+Avulavirus (cohortis)
+Bacillus anthracis (Maladie du charbon)
+Bacteroides :
+Bacteroides fragilis
+virus Banna (en)
+virus de la forêt de Barmah d'Australie
+Bartonella :
+bacilliformis
+ quintana  (Rochalimaea quintana)
+Rochalimaea spp.
+bronchiseptica
+parapertussis
+pertussisis
+spp.
 Bas-Congo :
-tibrovirus (en)[23]
+tibrovirus (en)
 Bayou (Louisiana) :
 orthohantavirus
-virus Bebaru[13] (en)
-Borrelia[13] :
-burgdorferi[13]
-duttonii[13]
-recurrentis[13]
-spp.[13]
+virus Bebaru (en)
+Borrelia :
+burgdorferi
+duttonii
+recurrentis
+spp.
 virus de Bourbon
 Brachyspira spp.
-Brucella[13] :
-abortus[13]
-canis[13]
-inopinata[13]
-melitensis[13]
-suis[13]
-Bunyavirales  (ordo)[13]
-Burkholderia[13] :
-cepacia[13]
-mallei (Pseudomonas mallei)[13]
-Pseudomonas pseudomallei[13]
-Cabassouvirus[13]
-Caliciviridae (familia)[13]
-Campylobacter[13] :
-fetus[13]:
-fetus[13]
-venerealis[13]
-jejuni[13] :
-doylei[13]
-jejuni[13]
-spp.[13]
-Cardiobacterium (ga en)[13] :
-hominis[13]
-valvarum[13]
-Candida albicans[24] :
+Brucella :
+abortus
+canis
+inopinata
+melitensis
+suis
+Bunyavirales  (ordo)
+Burkholderia :
+cepacia
+mallei (Pseudomonas mallei)
+Pseudomonas pseudomallei
+Cabassouvirus
+Caliciviridae (familia)
+Campylobacter :
+fetus:
+fetus
+venerealis
+jejuni :
+doylei
+jejuni
+spp.
+Cardiobacterium (ga en) :
+hominis
+valvarum
+Candida albicans :
 Tca2
 Tca5 
-Cardiovirus (en es) (cohortis)[13]
-Chandipura virus (vesiculovirus : Rhabdoviridae)[25]
-virus Chikungunya[13]
-Chlamydia[13] :
-abortus (psittaci)[13],[26] :
-caviae[13]
-felis [13]
-trachomatis[13]
-pneumoniae[13]
-(circovirus PCV2 : in vitro[27])
-Clostridium[13] :
-botulinum[13]
-difficile[13]
-perfringens[13]
-tetani[13]
-spp.[13]
-Coltivirus (cohortis)[13]
-Coronaviridae (familia)[13]
+Cardiovirus (en es) (cohortis)
+Chandipura virus (vesiculovirus : Rhabdoviridae)
+virus Chikungunya
+Chlamydia :
+abortus (psittaci), :
+caviae
+felis 
+trachomatis
+pneumoniae
+(circovirus PCV2 : in vitro)
+Clostridium :
+botulinum
+difficile
+perfringens
+tetani
+spp.
+Coltivirus (cohortis)
+Coronaviridae (familia)
 coronavirus:
 229E
-Betacoronavirus (cohortis)[13]
+Betacoronavirus (cohortis)
 Betacoronavirus 1
 HKU1
-syndrome respiratoire du Moyen-Orient (SRMO-CoV) (virus du SRMO[13])
+syndrome respiratoire du Moyen-Orient (SRMO-CoV) (virus du SRMO)
 NL63
 OC43
-Coronavirus lié au syndrome respiratoire aigu sévère  (virus SRAS[13]) :
-SRAS-CoV-2 (VoC 202012/01)[28]
-autres Coronaviridae connus pour être pathogènes[13]
-Corynebacterium[13] :
-diphtheriae[13]
-minutissimum[13]
-pseudotuberculosis[13]
-ulcerans[13]
-spp.[13]
-Cosavirus (en) (cohortis)[13]
-A[13]
+Coronavirus lié au syndrome respiratoire aigu sévère  (virus SRAS) :
+SRAS-CoV-2 (VoC 202012/01)
+autres Coronaviridae connus pour être pathogènes
+Corynebacterium :
+diphtheriae
+minutissimum
+pseudotuberculosis
+ulcerans
+spp.
+Cosavirus (en) (cohortis)
+A
 Coxiella burnetii
-Cryptosporidium[29] (parasite):
-hominis[30] :
-parvum[30] :
+Cryptosporidium (parasite):
+hominis :
+parvum :
 cyclovirus : 1, 10, 11, 12, 2, 3, 4, 5, 6, 7, 8, 9
-Cyclospora[31]
-Cyclospora cayetanensis[31]
-Cytomegalovirus (cohortis)[13]
-γ-retrovirus (cohortis)[13]
-Δ-virus (cohortis)[13]
+Cyclospora
+Cyclospora cayetanensis
+Cytomegalovirus (cohortis)
+γ-retrovirus (cohortis)
+Δ-virus (cohortis)
 DENV - dengue (Flavivirus)
-Le Dantec virus (ledantevirus : Rhabdoviridae)[25]
-virus Dhori (en) (orthomyxoviridaeà tiques: Dhori)[13]
-Ébolavirus (cohortis)[13] :
+Le Dantec virus (ledantevirus : Rhabdoviridae)
+virus Dhori (en) (orthomyxoviridaeà tiques: Dhori)
+Ébolavirus (cohortis) :
 Ebola Zaïre
 virus Echo (Entérovirus: humain B)
-Edwardsiella tarda[13]
-Ehrlichia[13]
-Eikenella corrodens[13]
-Ekpoma (État d'Edo, Nigeria) Tibrovirus (Rhabdoviridae)[25] (en) :
-EKV-1[25]
-EKV-2[25]
-Elizabethkingia meningoseptica (en) (Flavobacterium meningosepticum)[13]
+Edwardsiella tarda
+Ehrlichia
+Eikenella corrodens
+Ekpoma (État d'Edo, Nigeria) Tibrovirus (Rhabdoviridae) (en) :
+EKV-1
+EKV-2
+Elizabethkingia meningoseptica (en) (Flavobacterium meningosepticum)
 Encéphalomyélite:
 virus de l’Encéphalomyélite équine:
-est-américaine[13]
-ouest-américaine[13]
-Venezuela[13]
+est-américaine
+ouest-américaine
+Venezuela
 virus de l’Encéphalite:
-d’Australie  virus de l'encéphalite de la Vallée du Murray[13]
+d’Australie  virus de l'encéphalite de la Vallée du Murray
 de Californie: orthobunyavirus
-japonaise[13]
-Rabies (RABV) (lyssavirus  : Rhabdoviridae)[25]
-Saint-Louis[13]
-à tiques[13] :
-sous type d’Europe centrale[13]
-sous type de Pacifique-Orient[13]
-sous type sibérien[13]
-verno-estivale russe[13]
-Enterobacter[13] :
-aerogenes (Klebsiella mobilis)[13]
-cloacae[13]
-spp.[13]
-Enterococcus spp.[13]
+japonaise
+Rabies (RABV) (lyssavirus  : Rhabdoviridae)
+Saint-Louis
+à tiques :
+sous type d’Europe centrale
+sous type de Pacifique-Orient
+sous type sibérien
+verno-estivale russe
+Enterobacter :
+aerogenes (Klebsiella mobilis)
+cloacae
+spp.
+Enterococcus spp.
 Enterobacteriaceae
-Entérovirus  (cohortis)[13]
-A[13]
-B[13]
-C[13]
-D (type 70 (virus de la conjonctivite hémorragique aiguë)[13]
-Erysipelothrix rhusiopathiae[13]
-Escherichia coli[13] :
-(à l’exception des souches non pathogènes)[13]
-souches cytotoxiques (par exemple O157:H7 ou O103)[13]
-virus Everglades[13] (en) 
-Erythroparvovirus (cohortis)[13]
-Érythroparvovirus des primates[13] 1 (parvovirus humain, virus B 19)
+Entérovirus  (cohortis)
+A
+B
+C
+D (type 70 (virus de la conjonctivite hémorragique aiguë)
+Erysipelothrix rhusiopathiae
+Escherichia coli :
+(à l’exception des souches non pathogènes)
+souches cytotoxiques (par exemple O157:H7 ou O103)
+virus Everglades (en) 
+Erythroparvovirus (cohortis)
+Érythroparvovirus des primates 1 (parvovirus humain, virus B 19)
 virus de la fièvre :
 virus de la fièvre hémorragique :
-d’Omsk[13]
+d’Omsk
 de Crimée-Congo
-fièvre-jaune[13]
-fièvre de Kyasanur (virus de la maladie de la forêt de Kyasanur[13], Karnataka, Inde[32]
-du Nil occidental[13]
-Filoviridae (familia)[13]
-Flaviviridae (familia)[13]
-Flavivirus (cohortis)[13]
-Fluoribacter bozemanae (Legionella)[13]
-Francisella (ca en es)[13] :
-hispaniensis[13]
-tularensis[13] :
- holarctica[13]
- novicida[13]
-tularensis[13]
-Fusobacterium necrophorum  [13] :
-funduliforme[13]
-necrophorum[13]
-Gardnerella vaginalis[13]
+fièvre-jaune
+fièvre de Kyasanur (virus de la maladie de la forêt de Kyasanur, Karnataka, Inde
+du Nil occidental
+Filoviridae (familia)
+Flaviviridae (familia)
+Flavivirus (cohortis)
+Fluoribacter bozemanae (Legionella)
+Francisella (ca en es) :
+hispaniensis
+tularensis :
+ holarctica
+ novicida
+tularensis
+Fusobacterium necrophorum   :
+funduliforme
+necrophorum
+Gardnerella vaginalis
 gemykibivirus : 1, 2, 3, 4, 5
-Giardia[29] :
+Giardia :
 grippe :
-α (cohortis[13])[33] mH5N1 (H5N1)[34]
-New York/1/18 (H1N1) (grippe espagnole 1918)[13]
-Singapour/1/57 (H2N2)[13]
-β (cohortis)[13]
-virus de l’influenza B[13]
-γ (cohortis)[13]
-Δ (cohortis)[13]
+α (cohortis) mH5N1 (H5N1)
+New York/1/18 (H1N1) (grippe espagnole 1918)
+Singapour/1/57 (H2N2)
+β (cohortis)
+virus de l’influenza B
+γ (cohortis)
+Δ (cohortis)
 virus de l’influenza aviaire ;
-Virus de l’influenza aviaire faiblement pathogène (IAFP) H7N9[13]
-Virus hautement pathogènes de l’influenza aviaire HPAIV (H5), par exemple H5N1[13]
-Virus hautement pathogènes de l’influenza aviaire HPAIV (H7), par exemple H7N7, H7N9[13]
-virus de Guanarito[15]
-Haemophilus[13] :
-ducreyi[13]
-influenzae[13]
-spp.[13]
-virus Hanzalova[13]
-Helicobacter[13] :
-pylori[13]
-spp.[13]
+Virus de l’influenza aviaire faiblement pathogène (IAFP) H7N9
+Virus hautement pathogènes de l’influenza aviaire HPAIV (H5), par exemple H5N1
+Virus hautement pathogènes de l’influenza aviaire HPAIV (H7), par exemple H7N7, H7N9
+virus de Guanarito
+Haemophilus :
+ducreyi
+influenzae
+spp.
+virus Hanzalova
+Helicobacter :
+pylori
+spp.
 virus de Hendra
-Hépacivirus (cohortis)[13]
-Hepadnaviridae (familia)[13]
+Hépacivirus (cohortis)
+Hepadnaviridae (familia)
 Hépatite (virus) :
 A
 B
-C[35]
+C
 Δ
-Orthohepevirus A (virus de l’hépatite E)[13]
-Hepeviridae (familia)[13]
-Herpesvirales (ordo)[13]
-Herpesviridae (familia[13])
+Orthohepevirus A (virus de l’hépatite E)
+Hepeviridae (familia)
+Herpesvirales (ordo)
+Herpesviridae (familia)
 α-herpesvirus:
-1 (herpesvirus humain 1, virus Herpes simplex de type 1[13])
-2 (herpesvirus humain 2, virus Herpes simplex de type 2[13])
-3 (varicella-zoster)[13] virus varicelle-zona (VZV)[36],[37],[38],[39]
+1 (herpesvirus humain 1, virus Herpes simplex de type 1)
+2 (herpesvirus humain 2, virus Herpes simplex de type 2)
+3 (varicella-zoster) virus varicelle-zona (VZV)
 β-herpesvirus :
-5 (cytomegalovirus)[13] (CMV)
+5 (cytomegalovirus) (CMV)
 HHV-6
-A (virus lymphotrope B humain)[13]
-B[13]
-7[13]
+A (virus lymphotrope B humain)
+B
+7
 γ-herpesvirus
-4 (Epstein-Barr) EBV[13]  (Lymphocryptovirus)
-8[13]
-Hantaviridae (familia)[13]
-autres hantavirus connus pour être pathogènes[13]
-Hépatovirus (cohortis)[13]
-Hépatovirus A (virus de l’hépatite A, entérovirus humain de type 72)[13]
-Hénipavirus (cohortis)[13]
-Hendra[13]
-Nipah[13]
-huchismacovirus: 1[40],2[41],3
-virus Hypr[13]
-Icoaraci phlebovirus[42],[43],[44] (de Brésil) :  (arbovirus Bunyaviridae)
-virus de l'immunodéficience humaine  (VIH)[45] : VIH-1, VIH-2
-virus de l'immunodéficience simienne (VIS)[13]
-Indiana (vesiculovirus  : Rhabdoviridae)[25]
-virus Junin[15]
-Klebsiella[13] :
-oxytoca[13]
-pneumoniae[13]:
-ozaenae[13]
-pneumoniae[13]
-rhinoscleromatis[13]
-spp.[13]
-Kobuvirus (cohortis)[13]
-virus Kumlinge[13]
+4 (Epstein-Barr) EBV  (Lymphocryptovirus)
+8
+Hantaviridae (familia)
+autres hantavirus connus pour être pathogènes
+Hépatovirus (cohortis)
+Hépatovirus A (virus de l’hépatite A, entérovirus humain de type 72)
+Hénipavirus (cohortis)
+Hendra
+Nipah
+huchismacovirus: 1,2,3
+virus Hypr
+Icoaraci phlebovirus (de Brésil) :  (arbovirus Bunyaviridae)
+virus de l'immunodéficience humaine  (VIH) : VIH-1, VIH-2
+virus de l'immunodéficience simienne (VIS)
+Indiana (vesiculovirus  : Rhabdoviridae)
+virus Junin
+Klebsiella :
+oxytoca
+pneumoniae:
+ozaenae
+pneumoniae
+rhinoscleromatis
+spp.
+Kobuvirus (cohortis)
+virus Kumlinge
 virus de Langya (LayV) (henipavirus)
-virus de Lassa[46] - mammarenavirus
-Legionella[13] :
-pneumophila[13]
-fraseri[13]
-pascullei[13]
-pneumophila[13]
-spp.[13]
-Lentivirus (cohortis)[13]
-Leptospira[13] :
-interrogans[13] :
-(tout serovars)[13]
-spp.[13]
-Listeria [13] :
-monocytogenes[13]
-ivanovii[13]:
-ivanovii[13]
-londoniensis[13]
-virus Louping ill[13]
-Lymphocryptovirus  (cohortis)[13]
-Lyssavirus (cohortis)[13]
-chauves-souris australiennes[13]
-Duvenhage[13]
-des chauves-souris européennes 1[13]
-des chauves-souris européennes 2[13]
-des chauves-souris de Lagos[13]
-Mokola[13]
-de la rage[13]
-Macacine alphaherpesvirus 1 (herpesvirus simiae, virus Herpes B)[13]
-Mammarenavirus (cohortis)[13]
-brésilien[13]
-Chapare[13]
-Flexal[13]
-Guanarito[13]
-Junin[13]
-Lassa[13]
-Lujo[13]
-de la chorioméningite lymphocytaire  (souches neurotropes)[13]
-de la chorioméningite lymphocytaire  (autres souches)[13]
-Machupo[13]
-Mobala[13]
-Mopeia[13]
-Tacaribe[13]
-Whitewater Arroyo[13]
-Marburgvirus[13]
-virus de Marburg (Henipavirus[47])
+virus de Lassa - mammarenavirus
+Legionella :
+pneumophila
+fraseri
+pascullei
+pneumophila
+spp.
+Lentivirus (cohortis)
+Leptospira :
+interrogans :
+(tout serovars)
+spp.
+Listeria  :
+monocytogenes
+ivanovii:
+ivanovii
+londoniensis
+virus Louping ill
+Lymphocryptovirus  (cohortis)
+Lyssavirus (cohortis)
+chauves-souris australiennes
+Duvenhage
+des chauves-souris européennes 1
+des chauves-souris européennes 2
+des chauves-souris de Lagos
+Mokola
+de la rage
+Macacine alphaherpesvirus 1 (herpesvirus simiae, virus Herpes B)
+Mammarenavirus (cohortis)
+brésilien
+Chapare
+Flexal
+Guanarito
+Junin
+Lassa
+Lujo
+de la chorioméningite lymphocytaire  (souches neurotropes)
+de la chorioméningite lymphocytaire  (autres souches)
+Machupo
+Mobala
+Mopeia
+Tacaribe
+Whitewater Arroyo
+Marburgvirus
+virus de Marburg (Henipavirus)
 Mastadenovirus A, B, C, D, E, F, G
-virus Mayaro[13]
-Metapneumovirus (cohortis)[13]
-Molluscum contagiosum (Molluscipoxvirus (cohortis)[13]en es)
-Mononegavirales[13]
-Morbillivirus (cohortis)[13]
-de la rougeole[13]
-Morganella morganii[13] :
-morganii (Proteus morganii)[13]
-sibonii[13]
-virus Mucambo[13]
+virus Mayaro
+Metapneumovirus (cohortis)
+Molluscum contagiosum (Molluscipoxvirus (cohortis)en es)
+Mononegavirales
+Morbillivirus (cohortis)
+de la rougeole
+Morganella morganii :
+morganii (Proteus morganii)
+sibonii
+virus Mucambo
 Mycobacterium :
-abscessus[13] :
-abscessus[13]
-africanum[13]
-avium[13]
-paratuberculosis[13]
-silvaticum[13]
-bovis[13]
-caprae[13]
- chelonae[13]
-chimaera[13]
-fortuitum[13]
-intracellulare[13]
-kansasii[13]
-leprae[13]
-malmoense[13]
-marinum[13]
-microti[13]
-pinnipedii[13]
-scrofulaceum[13]
-simiae[13]
-szulgai[13]
-tuberculosis[13]
-ulcerans[13]
- xenopi[13]
-hominis[13]
-pneumoniae[13]
-spp.[13]
-Nairoviridae  (familia)[13]
-nairovirus connus pour être pathogènes[13]
-virus Ndumu[13]
-virus Negishi[13]
-Neisseria[13] :
-gonorrhoeae[13]
-meningitidis[13]
-Neorickettsia sennetsu (Rickettsia sennetsu, Ehrlichia sennetsu)[13]
-virus de la maladie de Newcastle[13]
-Nidovirales (ordo)[13]
+abscessus :
+abscessus
+africanum
+avium
+paratuberculosis
+silvaticum
+bovis
+caprae
+ chelonae
+chimaera
+fortuitum
+intracellulare
+kansasii
+leprae
+malmoense
+marinum
+microti
+pinnipedii
+scrofulaceum
+simiae
+szulgai
+tuberculosis
+ulcerans
+ xenopi
+hominis
+pneumoniae
+spp.
+Nairoviridae  (familia)
+nairovirus connus pour être pathogènes
+virus Ndumu
+virus Negishi
+Neisseria :
+gonorrhoeae
+meningitidis
+Neorickettsia sennetsu (Rickettsia sennetsu, Ehrlichia sennetsu)
+virus de la maladie de Newcastle
+Nidovirales (ordo)
 virus Nipah (henipavirus)
-Nocardia[13] :
-asteroides[13]
-brasiliensis[13]
-farcinica[13]
-nova[13]
-otitidiscaviarum[13]
-spp.[13]
-Norovirus (cohortis)[13]
-virus Norwalk[13]
-virus de l'o'nyong-nyong (cohortis)[13]
-Orbivirus[13]
-virus Orf[13]
-Orientia tsutsugamushi (Rickettsia tsutsugamushi)[13]
+Nocardia :
+asteroides
+brasiliensis
+farcinica
+nova
+otitidiscaviarum
+spp.
+Norovirus (cohortis)
+virus Norwalk
+virus de l'o'nyong-nyong (cohortis)
+Orbivirus
+virus Orf
+Orientia tsutsugamushi (Rickettsia tsutsugamushi)
 Orthobunyavirus:
-Bunyamwera (virus Germiston)[13]
-de l’encéphalite de Californie[13]
-Oropouche[13]
-Autres orthobunyavirus connus pour être pathogènes[13]
-Orthohantavirus (cohortis)[13] :
-Andes (espèce d’hantavirus causant le syndrome pulmonaire (SPH)[13]
-Bayou[13]
-Black Creek Canal[13]
-Cano Delgadito[13]
-Chocl[13]
-Dobrava-Belgrade (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))[13]
-El Moro Canyon[13]
-Hantaan (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))[13]
-Laguna Negra[13]
-Prospect Hill[13]
-Puumala (espèce d’hantavirus causant la néphropathie épidémique scandinave (NE))[13]
-Séoul (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))[13]
-Sin Nombre (espèce d’hantavirus causant le syndrome pulmonaire (SPH))[13]
-Orthohepevirus (cohortis)[13]
-Orthohepadnavirus (cohortis)[13]
-Orthomyxoviridae (familia)[13]
-Orthonairovirus (cohortis)[13]
-fièvre hémorragique de Crimée-Congo[13]
-Dugbe[13]
-Hazara[13]
-maladie du mouton de Nairobi[13]
-Orthopneumovirus (cohortis[13]) :
-Orthopneumovirus humain  (virus respiratoire syncytial)[13]
-Orthopoxvirus  (cohortis)[13]
+Bunyamwera (virus Germiston)
+de l’encéphalite de Californie
+Oropouche
+Autres orthobunyavirus connus pour être pathogènes
+Orthohantavirus (cohortis) :
+Andes (espèce d’hantavirus causant le syndrome pulmonaire (SPH)
+Bayou
+Black Creek Canal
+Cano Delgadito
+Chocl
+Dobrava-Belgrade (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))
+El Moro Canyon
+Hantaan (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))
+Laguna Negra
+Prospect Hill
+Puumala (espèce d’hantavirus causant la néphropathie épidémique scandinave (NE))
+Séoul (espèce d’hantavirus causant la fièvre hémorragique avec syndrome rénal (FHSR))
+Sin Nombre (espèce d’hantavirus causant le syndrome pulmonaire (SPH))
+Orthohepevirus (cohortis)
+Orthohepadnavirus (cohortis)
+Orthomyxoviridae (familia)
+Orthonairovirus (cohortis)
+fièvre hémorragique de Crimée-Congo
+Dugbe
+Hazara
+maladie du mouton de Nairobi
+Orthopneumovirus (cohortis) :
+Orthopneumovirus humain  (virus respiratoire syncytial)
+Orthopoxvirus  (cohortis)
 Orthorubulavirus 2, 4
-Papillomaviridae (familia)[13] :
+Papillomaviridae (familia) :
 Papillomavirus humain :
-Alphapapillomavirus[48] (Papillomaviridae) :
-HPV16 (cancer du col de l'utérus plus causal[48])
-HPV31 (cancer du col de l'utérus causal[48])
-HPV71 (non causal[48])
-Paramyxoviridae (familia)[13]
-Parapoxvirus (cohortis)[13]
-Parechovirus (cohortis)[13]
-α[13]
-β (virus Ljungan)[13]
-Parvoviridae[13] (familia)
-Parvovirus B19 : Cinquième maladie[49]
-Pasteurella[13] :
-multocida[13]
-gallicida (Pasteurella gallicida)[13]
-multocida[13]
-septica[13]
-spp.[13]
+Alphapapillomavirus (Papillomaviridae) :
+HPV16 (cancer du col de l'utérus plus causal)
+HPV31 (cancer du col de l'utérus causal)
+HPV71 (non causal)
+Paramyxoviridae (familia)
+Parapoxvirus (cohortis)
+Parechovirus (cohortis)
+α
+β (virus Ljungan)
+Parvoviridae (familia)
+Parvovirus B19 : Cinquième maladie
+Pasteurella :
+multocida
+gallicida (Pasteurella gallicida)
+multocida
+septica
+spp.
 Peptostreptococcus :
-Peptostreptococcus anaerobius[13]
-Peribunyaviridae (familia)[13]
-Phenuiviridae (familia)[13]
-Phlebovirus (cohortis)[13] :
-Bhanja[13]
-Punta Toro[13]
-de la fièvre de la vallée du Rift[13]
-fièvre à phlébotomes de Naples (virus Toscana)[13]
-SFTS (virus du syndrome de fièvre sévère avec thrombocytopénie)[13]
-autres phlébovirus connus pour être pathogènes[13]
+Peptostreptococcus anaerobius
+Peribunyaviridae (familia)
+Phenuiviridae (familia)
+Phlebovirus (cohortis) :
+Bhanja
+Punta Toro
+de la fièvre de la vallée du Rift
+fièvre à phlébotomes de Naples (virus Toscana)
+SFTS (virus du syndrome de fièvre sévère avec thrombocytopénie)
+autres phlébovirus connus pour être pathogènes
 picobirnavirus
-Picornavirales (ordo)[13] :
-Picornaviridae  (familia)[13]
-autres Picornaviridae connus pour être pathogènes[13]
-vésiculovirus Piry  (virus Piry)[13]
-Plesiomonas shigelloides[13]
-Pneumoviridae  (familia)[13]
-virus de la poliomyélite[50] (Enterovirus)
-Poliovirus[13] :
-1[13]
-2[13]
-3[13]
-Polyomaviridae (familia)[13] :
+Picornavirales (ordo) :
+Picornaviridae  (familia)
+autres Picornaviridae connus pour être pathogènes
+vésiculovirus Piry  (virus Piry)
+Plesiomonas shigelloides
+Pneumoviridae  (familia)
+virus de la poliomyélite (Enterovirus)
+Poliovirus :
+1
+2
+3
+Polyomaviridae (familia) :
 polyomavirus : 1,10,11,13,14,2,3,4,5,6,7,8,9
-Betapolyomavirus (cohortis)[13]
-Polyomavirus humain (virus BK)[13] 1
-Polyomavirus humain 2 (virus JC)[13]
-Porphyromonas spp.[13]
+Betapolyomavirus (cohortis)
+Polyomavirus humain (virus BK) 1
+Polyomavirus humain 2 (virus JC)
+Porphyromonas spp.
 porprismacovirus: 1, 2
-virus Powassan[13]
-Poxviridae (familia)[13]
-Prevotella spp.[13]
-Proteus[13] :
-mirabilis[13]
-penneri[13]
-vulgaris[13]
-Providencia[13] :
-alcalifaciens (Proteus inconstans)[13]
-rettgeri (Proteus rettgeri)[13]
-Providencia spp.[13]
+virus Powassan
+Poxviridae (familia)
+Prevotella spp.
+Proteus :
+mirabilis
+penneri
+vulgaris
+Providencia :
+alcalifaciens (Proteus inconstans)
+rettgeri (Proteus rettgeri)
+Providencia spp.
 Pseudomonas aeruginosa (bactéries)
-virus de le pseudo-pox de la vache (virus du nodule des trayeurs, parapoxvirus bovis)[13] (en)
-Reoviridae (familia)[13]
-respirovirus[13] :
-1 (virus para-influenza de type 1)[13]
-3[51] (virus para-influenza de type 3)[13]
-Retroviridae (familia)[13]
-Rhabdoviridae (familia)[13]
-Rhadinoovirus (cohortis)[13]
-Rhinovirus[13]
-Rhodococcus hoagii (Corynebacterium equii)[13]
-Rickettsia[13] :
-africae[13]
-akari[13]
-australis[13]
-canadensis[13]
-conorii[13]
-heilongjiangensis[13]
-japonica[13]
-montanensis[13]
-typhi[13]
-prowazekii[13]
-rickettsii[13]
-sibirica[13]
-spp.[13]
-virus Rocio[13]
-Roseolovirus (cohortis)[13]
-virus de la rivière Ross[13]
-Rotavirus[52] (cohortis)[13]
-virus de la Rubéole[13]
-Rubivirus (cohortis)[13]
-Rubulavirus[13]
-des oreillons[13]
+virus de le pseudo-pox de la vache (virus du nodule des trayeurs, parapoxvirus bovis) (en)
+Reoviridae (familia)
+respirovirus :
+1 (virus para-influenza de type 1)
+3 (virus para-influenza de type 3)
+Retroviridae (familia)
+Rhabdoviridae (familia)
+Rhadinoovirus (cohortis)
+Rhinovirus
+Rhodococcus hoagii (Corynebacterium equii)
+Rickettsia :
+africae
+akari
+australis
+canadensis
+conorii
+heilongjiangensis
+japonica
+montanensis
+typhi
+prowazekii
+rickettsii
+sibirica
+spp.
+virus Rocio
+Roseolovirus (cohortis)
+virus de la rivière Ross
+Rotavirus (cohortis)
+virus de la Rubéole
+Rubivirus (cohortis)
+Rubulavirus
+des oreillons
 humain :
-2 (virus para-influenza de type 2)[13]
-4 (virus para-influenza de type 4)[13]
-virus Sabiá[15]
-virus Saffold[13]
-Salmonella   [13] :
-enterica (choleraesuis)   [13] :
-arizonae[13]
-enteritidis[13]
+2 (virus para-influenza de type 2)
+4 (virus para-influenza de type 4)
+virus Sabiá
+virus Saffold
+Salmonella    :
+enterica (choleraesuis)    :
+arizonae
+enteritidis
 paratyphi
-A[13]
-B[13]
-C[13]
-typhi[13]
-typhimurium[13]
-autres variétés sérologiques[13]
+A
+B
+C
+typhi
+typhimurium
+autres variétés sérologiques
 SBV (Schmallenberg orthobunyavirus, 2011)
-Seadornavirus (cohortis)[13]
-virus de la forêt de Semliki[13]
+Seadornavirus (cohortis)
+virus de la forêt de Semliki
 Seoul orthohantavirus
-Shigella[13]
-boydii[13]
-dysenteriae[13] :
-Type 1[13]
-autre que le Type 1[13]
-flexneri[13]
-sonnei[13]
-Simplexvirus (cohortis)[13]
-virus Sindbis[13]
-smacovirus[53]
-Staphylococcus aureus[13]
+Shigella
+boydii
+dysenteriae :
+Type 1
+autre que le Type 1
+flexneri
+sonnei
+Simplexvirus (cohortis)
+virus Sindbis
+smacovirus
+Staphylococcus aureus
 virus de la stomatite vésiculeuse:
-vésiculovirus Alagoas[13]
-vésiculovirus Indiana[13]
-vésiculovirus New Jersey[13]
-Streptobacillus moniliformis[13]
-Streptococcus[13] :
-agalactiae[13]
-equisimilis[13]
-pneumoniae[13]
-pyogenes[13]
-Streptococcus suis[13]
-spp.[13]
-virus T-lymphotrope[54] (VTlh)
-Virus T-lymphotrope 1 des primates (virus lymphotrope des cellules T humain de type 1)[13]
-Virus T-lymphotrope 2 des primates (virus lymphotrope des cellules T humain de type 2)[13]
-virus Tanapox[13] (es)
-virus Thogoto (cohortis)[13]
-virus Thogoto (orthomyxoviridae à tiques: Thogoto)[13]
-Togaviridae (familia)[13]
-virus Tonate[13]
-Treponema[13] :
-carateum[13]
-pallidum[13]
-pertenue[13]
-spp.[13]
-Trueperella pyogenes[13]
-Ureaplasma [13]
-parvum[13]
-urealyticum[13]
-Varicellovirus (cohortis)[13]
-virus de la Vaccine y compris virus de la variole du buffle, virus de la variole de l’éléphant, virus de la variole du lapin[13]
-virus de la variole  (majeure et mineure)[13]
-virus de la variole bovine[13]
-virus de la variole du singe[55]
-Vesiculovirus  (cohortis)[13]
-Vibrio[13] :
-cholerae (y inclus El Tor)[13]
-parahaemolyticus (Benecka parahaemolytica) [13]
-spp.[13]
-virus Wesselsbron[13]
-virus de la tumeur du singe Yaba[13]
-Yatapoxvirus (cohortis)[13]
-Yersinia[13] :
-enterocolitica[13]
-enterolitica[13]
-palearctica[13]
-pestis[13]
-pseudotuberculosis[13]
-spp.[13]
-Zika virus[56] (Flavivirus)
+vésiculovirus Alagoas
+vésiculovirus Indiana
+vésiculovirus New Jersey
+Streptobacillus moniliformis
+Streptococcus :
+agalactiae
+equisimilis
+pneumoniae
+pyogenes
+Streptococcus suis
+spp.
+virus T-lymphotrope (VTlh)
+Virus T-lymphotrope 1 des primates (virus lymphotrope des cellules T humain de type 1)
+Virus T-lymphotrope 2 des primates (virus lymphotrope des cellules T humain de type 2)
+virus Tanapox (es)
+virus Thogoto (cohortis)
+virus Thogoto (orthomyxoviridae à tiques: Thogoto)
+Togaviridae (familia)
+virus Tonate
+Treponema :
+carateum
+pallidum
+pertenue
+spp.
+Trueperella pyogenes
+Ureaplasma 
+parvum
+urealyticum
+Varicellovirus (cohortis)
+virus de la Vaccine y compris virus de la variole du buffle, virus de la variole de l’éléphant, virus de la variole du lapin
+virus de la variole  (majeure et mineure)
+virus de la variole bovine
+virus de la variole du singe
+Vesiculovirus  (cohortis)
+Vibrio :
+cholerae (y inclus El Tor)
+parahaemolyticus (Benecka parahaemolytica) 
+spp.
+virus Wesselsbron
+virus de la tumeur du singe Yaba
+Yatapoxvirus (cohortis)
+Yersinia :
+enterocolitica
+enterolitica
+palearctica
+pestis
+pseudotuberculosis
+spp.
+Zika virus (Flavivirus)
 Houblon :
 latent viroid
 latent virus
@@ -3794,7 +3822,7 @@
 Humulus japonicus latent virus
 Hunnivirus A
 Île Hunter :
-bandavirus[57]
+bandavirus
 Hydra viridis Chlorella virus 1
 Hydrangea:
 chlorotic mottle virus
@@ -3825,7 +3853,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3843,7 +3871,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Iaco orthobunyavirus
@@ -3913,7 +3943,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3931,7 +3961,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jaagsiekte sheep retrovirus
@@ -3983,7 +4015,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4001,7 +4033,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kabuto mountain uukuvirus
@@ -4151,7 +4185,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4169,7 +4203,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Crosse orthobunyavirus
@@ -4410,7 +4446,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4428,7 +4464,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Macaca fascicularis polyomavirus 1
@@ -4443,8 +4481,8 @@
 Macacine gammaherpesvirus 4
 Macacine gammaherpesvirus 5
 Macacine gammaherpesvirus 8
-macaque de Tonkean[58]
-Abatino macacapox ⇒ [82] - (Orthopoxvirus)
+macaque de Tonkean
+Abatino macacapox ⇒  - (Orthopoxvirus)
 Macaua orthobunyavirus
 Machupo mammarenavirus
 Maclura mosaic virus
@@ -4567,8 +4605,8 @@
 Marburg marburgvirus
 Marco hapavirus
 Mariental mammarenavirus
-Marine et eau douce[59]:
-Virus de la nécrose pancréatique infectieuse[60]
+Marine et eau douce:
+Virus de la nécrose pancréatique infectieuse
 Marine protobacilladnavirus 1
 Marinomonas:
 virus CB5A
@@ -4792,8 +4830,8 @@
 Murmansk microtuspox virus
 Murray Valley encephalitis virus
 Murre uukuvirus
-Mus[61]:
-Arumowot virus[61] (phlebovirus)
+Mus:
+Arumowot virus (phlebovirus)
 Mus musculus :
 polyomavirus 1
 polyomavirus 2
@@ -5029,7 +5067,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5047,7 +5085,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nacovirus A
@@ -5121,7 +5161,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5139,7 +5179,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oakvale sunrhavirus
@@ -5263,7 +5305,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5281,7 +5323,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La côte Pacifique : uukuvirus
@@ -5337,7 +5381,7 @@
 Papio cynocephalus polyomavirus 1
 Papio cynocephalus polyomavirus 2
 Papillon fleur: mosaïque
-Papillomaviridae[62]:
+Papillomaviridae:
 Dyo-φ-papillomavirus 1
 Dyo-γ-papillomavirus 1
 Dyo-ε-papillomavirus 1
@@ -5703,7 +5747,7 @@
 Pois streak 
 Pois jaune stunt
 Poisson:
-Virus de la nécrose infectieuse de la rate et des reins (iridovirus[63])
+Virus de la nécrose infectieuse de la rate et des reins (iridovirus)
 Poivron alphaendornavirus
 Poivron tache
 Pokeweed mosaic 
@@ -6142,7 +6186,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6160,7 +6204,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Qalyub orthonairovirus
@@ -6180,7 +6226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6198,7 +6244,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rabbit associated gemykroznavirus 1
@@ -6436,7 +6484,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6454,7 +6502,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sabo orthobunyavirus
@@ -7252,7 +7302,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7270,7 +7320,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tabanidae horwuvirus
@@ -7728,7 +7780,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7746,7 +7798,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Uganda S virus
@@ -7797,7 +7851,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7815,7 +7869,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vaccinia
@@ -7882,10 +7938,10 @@
 Viola phlebovirus
 Viper retrovirus
 Visna-maëdi
-Vitis Australien : viroid ⇒[83] - (apscaviroids, (Habili))
+Vitis Australien : viroid ⇒ - (apscaviroids, (Habili))
 Voandzeia necrotic mosaic
 Volepox
-Volvox : carteri Lueckenbuesser[64], Osser
+Volvox : carteri Lueckenbuesser, Osser
 Votkovvirus S28C10
 </t>
         </is>
@@ -7897,7 +7953,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7915,7 +7971,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wad Medani
@@ -8008,7 +8066,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8026,7 +8084,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Xanthomonas Carpasina
@@ -8067,7 +8127,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8085,7 +8145,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Y73 sarcoma virus
@@ -8153,7 +8215,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_d%27agents_infectieux</t>
+          <t>Liste_d'agents_infectieux</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8171,7 +8233,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zahedan :
